--- a/controllers.xlsx
+++ b/controllers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
   <si>
     <t/>
   </si>
@@ -55,6 +55,12 @@
     <t>PintV</t>
   </si>
   <si>
+    <t>Raiden 7</t>
+  </si>
+  <si>
+    <t>Raiden 7 HV</t>
+  </si>
+  <si>
     <t>Thor300</t>
   </si>
   <si>
@@ -100,19 +106,28 @@
     <t>Bring your own heat sink.</t>
   </si>
   <si>
+    <t>ZESC Raiden 7</t>
+  </si>
+  <si>
+    <t>ZESC Raiden 7 HV</t>
+  </si>
+  <si>
+    <t>The first Fungineers VESC. Virtually impossible to overheat when mounted in a Fungineers aluminum controller box.</t>
+  </si>
+  <si>
     <t>Bigger mosfets than 250, 2-layer PCB.</t>
   </si>
   <si>
     <t>RION and Tronicx cooperation</t>
   </si>
   <si>
-    <t>22S hardware design, 85V is in warranty</t>
+    <t>22S hardware design, 85V is in warranty. Use 18S max.</t>
   </si>
   <si>
     <t>Trampa</t>
   </si>
   <si>
-    <t>Better buy without enclosure, to make sure it fits in a controller box.</t>
+    <t>Better buy without enclosure (bareboard edition), to make sure it fits in a controller box.</t>
   </si>
   <si>
     <t>Introduced</t>
@@ -172,6 +187,9 @@
     <t>72x84</t>
   </si>
   <si>
+    <t>60x80</t>
+  </si>
+  <si>
     <t>97x90x36</t>
   </si>
   <si>
@@ -202,7 +220,10 @@
     <t>USB, CAN, UART, SPI, IIC</t>
   </si>
   <si>
-    <t>Not sure yet</t>
+    <t>ADC1, ADC2, UART, PPM, IIC, CANbus, USB-C</t>
+  </si>
+  <si>
+    <t>UART, ADC, Power, Hall Sensors, 3xLEDs, 2xUSB-C</t>
   </si>
   <si>
     <t>PPM, UART(adc1/adc2/adc3), Canbus, Hall sensor, TypeC USB, SWD port, NRF port, Ignite Key port, Power button port/12V power port *2</t>
@@ -218,21 +239,24 @@
 3.3V*1A. 5V*0.75A</t>
   </si>
   <si>
+    <t>5V, 12V</t>
+  </si>
+  <si>
     <t>Bluetooth</t>
   </si>
   <si>
     <t>Mount</t>
   </si>
   <si>
+    <t>FW ADV</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
     <t>Little FOCer</t>
   </si>
   <si>
-    <t>FW ADV</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>Pint</t>
   </si>
   <si>
@@ -270,6 +294,9 @@
   </si>
   <si>
     <t>https://floatwheel.co/index.php?route=product/product&amp;product_id=9929</t>
+  </si>
+  <si>
+    <t>https://www.discoverzesc.com/raiden-7</t>
   </si>
   <si>
     <t>https://www.fungineers.us/products/thor-300-funwheel-controller-esc</t>
@@ -695,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -704,10 +731,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="25" width="11.428571428571429" customWidth="1"/>
+    <col min="1" max="27" width="10.582010582010582" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,10 +810,16 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -860,10 +893,16 @@
       <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -875,38 +914,48 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="W3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -914,9 +963,15 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2024</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>2022</v>
@@ -927,80 +982,102 @@
       <c r="L4" s="3">
         <v>2024</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2024</v>
+      </c>
       <c r="O4" s="3">
         <v>2023</v>
       </c>
       <c r="P4" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q4" s="3">
         <v>2023</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2023</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
         <v>2024</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1019,31 +1096,37 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>250</v>
+      </c>
       <c r="P6" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>100</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
         <v>100</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>150</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
         <v>300</v>
       </c>
-      <c r="W6" s="3">
+      <c r="Y6" s="3">
         <v>250</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1059,36 +1142,42 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
+        <v>200</v>
+      </c>
+      <c r="P7" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="3">
         <v>300</v>
       </c>
-      <c r="P7" s="3">
+      <c r="R7" s="3">
         <v>250</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="3">
         <v>250</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
         <v>100</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>150</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
+      <c r="W7" s="3"/>
+      <c r="X7" s="3">
         <v>400</v>
       </c>
-      <c r="W7" s="3">
+      <c r="Y7" s="3">
         <v>350</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1104,24 +1193,26 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3">
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3">
         <v>10</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1144,27 +1235,29 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>350</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1189,29 +1282,35 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>24</v>
+      </c>
       <c r="P10" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
         <v>33.6</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>33.6</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3">
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
         <v>24</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>24</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1239,36 +1338,42 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
+        <v>78</v>
+      </c>
+      <c r="P11" s="3">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="3">
         <v>84</v>
       </c>
-      <c r="P11" s="3">
+      <c r="R11" s="3">
         <v>88.2</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="S11" s="3">
         <v>100.8</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3">
         <v>92.2</v>
       </c>
-      <c r="T11" s="3">
+      <c r="V11" s="3">
         <v>92.2</v>
       </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3">
         <v>100.8</v>
       </c>
-      <c r="W11" s="3">
+      <c r="Y11" s="3">
         <v>126</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1293,25 +1398,31 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>80</v>
+      </c>
       <c r="P12" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>120</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1333,18 +1444,20 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3">
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3">
         <v>75</v>
       </c>
-      <c r="W13" s="3">
+      <c r="Y13" s="3">
         <v>75</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>832</v>
@@ -1359,7 +1472,9 @@
       <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>800</v>
+      </c>
       <c r="H14" s="3">
         <v>800</v>
       </c>
@@ -1373,41 +1488,49 @@
       <c r="L14" s="3">
         <v>832</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>832</v>
-      </c>
-      <c r="P14" s="3">
-        <v>832</v>
-      </c>
+      <c r="M14" s="3">
+        <v>800</v>
+      </c>
+      <c r="N14" s="3">
+        <v>800</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3">
         <v>832</v>
       </c>
       <c r="R14" s="3">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="S14" s="3">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="T14" s="3">
         <v>800</v>
       </c>
       <c r="U14" s="3">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="V14" s="3">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="W14" s="3">
         <v>832</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X14" s="3">
+        <v>832</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>832</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1422,14 +1545,14 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -1437,60 +1560,66 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1498,89 +1627,97 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="Q18" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1594,7 +1731,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1603,136 +1742,148 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="P20" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="S20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="W20" s="3"/>
       <c r="X20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>0</v>
@@ -1741,63 +1892,69 @@
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="Y22" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -1838,14 +1995,14 @@
       <c r="N23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>94</v>
+      <c r="O23" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>0</v>
+      <c r="Q23" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>0</v>
@@ -1869,6 +2026,12 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1885,14 +2048,16 @@
     <hyperlink ref="N22" r:id="rId9"/>
     <hyperlink ref="O22" r:id="rId10"/>
     <hyperlink ref="P22" r:id="rId11"/>
-    <hyperlink ref="S22" r:id="rId12"/>
-    <hyperlink ref="T22" r:id="rId13"/>
+    <hyperlink ref="Q22" r:id="rId12"/>
+    <hyperlink ref="R22" r:id="rId13"/>
     <hyperlink ref="U22" r:id="rId14"/>
     <hyperlink ref="V22" r:id="rId15"/>
     <hyperlink ref="W22" r:id="rId16"/>
     <hyperlink ref="X22" r:id="rId17"/>
     <hyperlink ref="Y22" r:id="rId18"/>
-    <hyperlink ref="O23" r:id="rId19"/>
+    <hyperlink ref="Z22" r:id="rId19"/>
+    <hyperlink ref="AA22" r:id="rId20"/>
+    <hyperlink ref="Q23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
